--- a/Sprints/Sprint 12/Sprint8_Burndown_Finalized.xlsx
+++ b/Sprints/Sprint 12/Sprint8_Burndown_Finalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TDA\Documents\GitHub\SafeRide\Sprints\Sprint 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0EB3EA-5A59-4F68-9C8D-73910EC01F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C35B1D-50DE-4503-BD21-131F1917BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="420" windowWidth="18735" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="420" windowWidth="18735" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colin Burndown" sheetId="1" r:id="rId1"/>
@@ -29678,8 +29678,8 @@
   </sheetPr>
   <dimension ref="A1:X951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35642,8 +35642,8 @@
   </sheetPr>
   <dimension ref="A1:X951"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36606,7 +36606,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="18">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F35" s="33">
         <f t="shared" ref="F35:F38" si="4">E35*C35</f>
@@ -41621,7 +41621,7 @@
   </sheetPr>
   <dimension ref="A1:V946"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>

--- a/Sprints/Sprint 12/Sprint8_Burndown_Finalized.xlsx
+++ b/Sprints/Sprint 12/Sprint8_Burndown_Finalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TDA\Documents\GitHub\SafeRide\Sprints\Sprint 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C35B1D-50DE-4503-BD21-131F1917BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C79AF8-80EB-448A-B772-B9446F1A825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="420" windowWidth="18735" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colin Burndown" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>Orion, Andy</t>
   </si>
   <si>
-    <t>Sprint 8 - An</t>
-  </si>
-  <si>
     <t>Sprint 12 - Colin</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>Share Route</t>
+  </si>
+  <si>
+    <t>Sprint 12 - An</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2112,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 8</a:t>
+              <a:t>Sprint 12</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4811,7 +4811,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 8 Burndown - Colin</a:t>
+              <a:t>Sprint 12 Burndown - Colin</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6078,7 +6078,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 8 Burndown - Andy</a:t>
+              <a:t>Sprint 12 Burndown - Andy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7281,7 +7281,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 8 Burndown - Orion</a:t>
+              <a:t>Sprint 12 Burndown - Orion</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8534,7 +8534,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 8</a:t>
+              <a:t>Sprint 12</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -11944,8 +11944,8 @@
   </sheetPr>
   <dimension ref="A1:X951"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12783,7 +12783,7 @@
     <row r="32" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="18">
         <v>0.3</v>
@@ -12938,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="18">
         <v>0.2</v>
@@ -13008,7 +13008,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="18">
         <v>0.6</v>
@@ -13043,7 +13043,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="18">
         <v>0.5</v>
@@ -13078,7 +13078,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="18">
         <v>0.3</v>
@@ -13183,7 +13183,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="18">
         <v>0.4</v>
@@ -13218,7 +13218,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="18">
         <v>0.7</v>
@@ -13253,7 +13253,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="18">
         <v>0.8</v>
@@ -17888,7 +17888,7 @@
   <dimension ref="A1:X946"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18687,7 +18687,7 @@
     <row r="32" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -18877,7 +18877,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="18">
         <v>0.1</v>
@@ -18947,7 +18947,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="18">
         <v>0.1</v>
@@ -18982,7 +18982,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="18">
         <v>0.1</v>
@@ -19017,7 +19017,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="18">
         <v>0.1</v>
@@ -19052,7 +19052,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="18">
         <v>0.2</v>
@@ -19087,7 +19087,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="18">
         <v>0.2</v>
@@ -19122,7 +19122,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="18">
         <v>0.2</v>
@@ -19157,7 +19157,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="18">
         <v>0.3</v>
@@ -23767,7 +23767,7 @@
   <dimension ref="A1:X951"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24575,7 +24575,7 @@
     <row r="32" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -24695,7 +24695,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="18">
         <v>0.4</v>
@@ -24730,7 +24730,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="18">
         <v>0.2</v>
@@ -24835,7 +24835,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="18">
         <v>0.6</v>
@@ -24870,7 +24870,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="18">
         <v>0.6</v>
@@ -24974,7 +24974,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="18">
         <v>0.8</v>
@@ -25009,7 +25009,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="18">
         <v>0.75</v>
@@ -25044,7 +25044,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="18">
         <v>0.8</v>
@@ -29678,8 +29678,8 @@
   </sheetPr>
   <dimension ref="A1:X951"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30539,7 +30539,7 @@
     <row r="32" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -30624,7 +30624,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="18">
         <v>0.8</v>
@@ -30659,7 +30659,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="18">
         <v>0.8</v>
@@ -30694,7 +30694,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="18">
         <v>0.75</v>
@@ -30729,7 +30729,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="18">
         <v>0.8</v>
@@ -30764,7 +30764,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="18">
         <v>0.9</v>
@@ -30798,7 +30798,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="18">
         <v>0.8</v>
@@ -30833,7 +30833,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="18">
         <v>0.8</v>
@@ -30868,7 +30868,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="18">
         <v>0.9</v>
@@ -35642,8 +35642,8 @@
   </sheetPr>
   <dimension ref="A1:X951"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36518,7 +36518,7 @@
     <row r="32" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="107" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -41621,7 +41621,7 @@
   </sheetPr>
   <dimension ref="A1:V946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="110" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -41683,7 +41683,7 @@
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="108"/>
       <c r="D5" s="108"/>
